--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="19272" windowHeight="3600" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="19272" windowHeight="4572" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="OneJN_TC1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S11"/>
+  <oleSize ref="A1:S14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,10 +115,10 @@
     <t>Rupee</t>
   </si>
   <si>
+    <t>Password@123</t>
+  </si>
+  <si>
     <t>chanelle012</t>
-  </si>
-  <si>
-    <t>Password@123</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,10 +715,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
